--- a/notebooks/scripts/city_tram_new_connected_edges_straight_line0617.xlsx
+++ b/notebooks/scripts/city_tram_new_connected_edges_straight_line0617.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E412"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5795,11 +5795,11 @@
         <v>2173</v>
       </c>
       <c r="B284" t="n">
-        <v>2177</v>
+        <v>1544</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>8.340042405779304</v>
+        <v>151.8488539431089</v>
       </c>
       <c r="E284" t="n">
         <v>14.1</v>
@@ -5810,11 +5810,11 @@
         <v>2173</v>
       </c>
       <c r="B285" t="n">
-        <v>1544</v>
+        <v>2180</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="n">
-        <v>151.8488539431089</v>
+        <v>8.071920172190453</v>
       </c>
       <c r="E285" t="n">
         <v>14.1</v>
@@ -5825,11 +5825,11 @@
         <v>2173</v>
       </c>
       <c r="B286" t="n">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="n">
-        <v>8.071920172190453</v>
+        <v>17.07019989796029</v>
       </c>
       <c r="E286" t="n">
         <v>14.1</v>
@@ -5840,11 +5840,11 @@
         <v>2173</v>
       </c>
       <c r="B287" t="n">
-        <v>2178</v>
+        <v>1359</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="n">
-        <v>17.07019989796029</v>
+        <v>149.499613648748</v>
       </c>
       <c r="E287" t="n">
         <v>14.1</v>
@@ -5855,11 +5855,11 @@
         <v>2173</v>
       </c>
       <c r="B288" t="n">
-        <v>1359</v>
+        <v>1658</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
-        <v>149.499613648748</v>
+        <v>212.4835529534292</v>
       </c>
       <c r="E288" t="n">
         <v>14.1</v>
@@ -5870,11 +5870,11 @@
         <v>2173</v>
       </c>
       <c r="B289" t="n">
-        <v>1658</v>
+        <v>2776</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="n">
-        <v>212.4835529534292</v>
+        <v>224.9345818481979</v>
       </c>
       <c r="E289" t="n">
         <v>14.1</v>
@@ -5882,14 +5882,14 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2173</v>
+        <v>1544</v>
       </c>
       <c r="B290" t="n">
-        <v>2776</v>
+        <v>2180</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="n">
-        <v>224.9345818481979</v>
+        <v>155.7684098358127</v>
       </c>
       <c r="E290" t="n">
         <v>14.1</v>
@@ -5900,11 +5900,11 @@
         <v>1544</v>
       </c>
       <c r="B291" t="n">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="n">
-        <v>147.0767312788796</v>
+        <v>143.3402221988415</v>
       </c>
       <c r="E291" t="n">
         <v>14.1</v>
@@ -5915,11 +5915,11 @@
         <v>1544</v>
       </c>
       <c r="B292" t="n">
-        <v>2173</v>
+        <v>1359</v>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="n">
-        <v>151.8488539431089</v>
+        <v>8.244869981360791</v>
       </c>
       <c r="E292" t="n">
         <v>14.1</v>
@@ -5930,11 +5930,11 @@
         <v>1544</v>
       </c>
       <c r="B293" t="n">
-        <v>2180</v>
+        <v>1658</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="n">
-        <v>155.7684098358127</v>
+        <v>68.35017707740101</v>
       </c>
       <c r="E293" t="n">
         <v>14.1</v>
@@ -5945,11 +5945,11 @@
         <v>1544</v>
       </c>
       <c r="B294" t="n">
-        <v>2178</v>
+        <v>2776</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="n">
-        <v>143.3402221988415</v>
+        <v>74.03345488450371</v>
       </c>
       <c r="E294" t="n">
         <v>14.1</v>
@@ -5957,14 +5957,14 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1544</v>
+        <v>2180</v>
       </c>
       <c r="B295" t="n">
-        <v>1359</v>
+        <v>2178</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="n">
-        <v>8.244869981360791</v>
+        <v>25.12122953434201</v>
       </c>
       <c r="E295" t="n">
         <v>14.1</v>
@@ -5972,14 +5972,14 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1544</v>
+        <v>2180</v>
       </c>
       <c r="B296" t="n">
-        <v>1658</v>
+        <v>1359</v>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="n">
-        <v>68.35017707740101</v>
+        <v>153.7812967769818</v>
       </c>
       <c r="E296" t="n">
         <v>14.1</v>
@@ -5987,14 +5987,14 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1544</v>
+        <v>2180</v>
       </c>
       <c r="B297" t="n">
-        <v>2776</v>
+        <v>1658</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="n">
-        <v>74.03345488450371</v>
+        <v>217.5247397333711</v>
       </c>
       <c r="E297" t="n">
         <v>14.1</v>
@@ -6005,11 +6005,11 @@
         <v>2180</v>
       </c>
       <c r="B298" t="n">
-        <v>2177</v>
+        <v>2776</v>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
-        <v>16.36709205779027</v>
+        <v>229.2423722781326</v>
       </c>
       <c r="E298" t="n">
         <v>14.1</v>
@@ -6017,14 +6017,14 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B299" t="n">
-        <v>2173</v>
+        <v>1359</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="n">
-        <v>8.071920172190453</v>
+        <v>140.215932331</v>
       </c>
       <c r="E299" t="n">
         <v>14.1</v>
@@ -6032,14 +6032,14 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B300" t="n">
-        <v>1544</v>
+        <v>1658</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="n">
-        <v>155.7684098358127</v>
+        <v>201.2739905738464</v>
       </c>
       <c r="E300" t="n">
         <v>14.1</v>
@@ -6047,14 +6047,14 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B301" t="n">
-        <v>2178</v>
+        <v>2776</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="n">
-        <v>25.12122953434201</v>
+        <v>215.2457511525788</v>
       </c>
       <c r="E301" t="n">
         <v>14.1</v>
@@ -6062,14 +6062,14 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2180</v>
+        <v>1359</v>
       </c>
       <c r="B302" t="n">
-        <v>1359</v>
+        <v>1658</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="n">
-        <v>153.7812967769818</v>
+        <v>66.70841394353052</v>
       </c>
       <c r="E302" t="n">
         <v>14.1</v>
@@ -6077,14 +6077,14 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2180</v>
+        <v>1359</v>
       </c>
       <c r="B303" t="n">
-        <v>1658</v>
+        <v>2776</v>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
-        <v>217.5247397333711</v>
+        <v>75.4641487156613</v>
       </c>
       <c r="E303" t="n">
         <v>14.1</v>
@@ -6092,14 +6092,14 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2180</v>
+        <v>1658</v>
       </c>
       <c r="B304" t="n">
         <v>2776</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
-        <v>229.2423722781326</v>
+        <v>27.44779484717159</v>
       </c>
       <c r="E304" t="n">
         <v>14.1</v>
@@ -6107,14 +6107,14 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2178</v>
+        <v>2481</v>
       </c>
       <c r="B305" t="n">
-        <v>2177</v>
+        <v>2370</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="n">
-        <v>8.760062441171552</v>
+        <v>315.6168217530986</v>
       </c>
       <c r="E305" t="n">
         <v>14.1</v>
@@ -6122,14 +6122,14 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2178</v>
+        <v>2370</v>
       </c>
       <c r="B306" t="n">
-        <v>2173</v>
+        <v>2582</v>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="n">
-        <v>17.07019989796029</v>
+        <v>310.6531154248717</v>
       </c>
       <c r="E306" t="n">
         <v>14.1</v>
@@ -6137,74 +6137,56 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2178</v>
+        <v>2421</v>
       </c>
       <c r="B307" t="n">
-        <v>1544</v>
+        <v>2635</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="n">
-        <v>143.3402221988415</v>
+        <v>116.7480907169365</v>
       </c>
       <c r="E307" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>2178</v>
-      </c>
-      <c r="B308" t="n">
-        <v>2180</v>
-      </c>
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
-      <c r="D308" t="n">
-        <v>25.12122953434201</v>
-      </c>
+      <c r="D308" t="inlineStr"/>
       <c r="E308" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
-        <v>2178</v>
-      </c>
-      <c r="B309" t="n">
-        <v>1359</v>
-      </c>
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
-      <c r="D309" t="n">
-        <v>140.215932331</v>
-      </c>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
-        <v>2178</v>
-      </c>
-      <c r="B310" t="n">
-        <v>1658</v>
-      </c>
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
-      <c r="D310" t="n">
-        <v>201.2739905738464</v>
-      </c>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2178</v>
+        <v>2462</v>
       </c>
       <c r="B311" t="n">
-        <v>2776</v>
+        <v>2633</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="n">
-        <v>215.2457511525788</v>
+        <v>53.55702075638382</v>
       </c>
       <c r="E311" t="n">
         <v>14.1</v>
@@ -6212,14 +6194,14 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1359</v>
+        <v>2463</v>
       </c>
       <c r="B312" t="n">
-        <v>2177</v>
+        <v>2632</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
-        <v>144.3720460898551</v>
+        <v>76.34946114848849</v>
       </c>
       <c r="E312" t="n">
         <v>14.1</v>
@@ -6227,14 +6209,14 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1359</v>
+        <v>2534</v>
       </c>
       <c r="B313" t="n">
-        <v>2173</v>
+        <v>2532</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>149.499613648748</v>
+        <v>188.8573485045831</v>
       </c>
       <c r="E313" t="n">
         <v>14.1</v>
@@ -6242,14 +6224,14 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1359</v>
+        <v>2534</v>
       </c>
       <c r="B314" t="n">
-        <v>1544</v>
+        <v>2521</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
-        <v>8.244869981360791</v>
+        <v>194.2688903974421</v>
       </c>
       <c r="E314" t="n">
         <v>14.1</v>
@@ -6257,14 +6239,14 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1359</v>
+        <v>2532</v>
       </c>
       <c r="B315" t="n">
-        <v>2180</v>
+        <v>2521</v>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
-        <v>153.7812967769818</v>
+        <v>268.0915865011721</v>
       </c>
       <c r="E315" t="n">
         <v>14.1</v>
@@ -6272,14 +6254,14 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1359</v>
+        <v>2739</v>
       </c>
       <c r="B316" t="n">
-        <v>2178</v>
+        <v>2564</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
-        <v>140.215932331</v>
+        <v>228.0000418872339</v>
       </c>
       <c r="E316" t="n">
         <v>14.1</v>
@@ -6287,14 +6269,14 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1359</v>
+        <v>2739</v>
       </c>
       <c r="B317" t="n">
-        <v>1658</v>
+        <v>2568</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
-        <v>66.70841394353052</v>
+        <v>271.9571317819541</v>
       </c>
       <c r="E317" t="n">
         <v>14.1</v>
@@ -6302,14 +6284,14 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1359</v>
+        <v>2564</v>
       </c>
       <c r="B318" t="n">
-        <v>2776</v>
+        <v>2568</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
-        <v>75.4641487156613</v>
+        <v>344.7803100550345</v>
       </c>
       <c r="E318" t="n">
         <v>14.1</v>
@@ -6317,14 +6299,14 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1658</v>
+        <v>2382</v>
       </c>
       <c r="B319" t="n">
-        <v>2177</v>
+        <v>2674</v>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
-        <v>206.5364739787493</v>
+        <v>36.93102665462838</v>
       </c>
       <c r="E319" t="n">
         <v>14.1</v>
@@ -6332,14 +6314,14 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1658</v>
+        <v>2467</v>
       </c>
       <c r="B320" t="n">
-        <v>2173</v>
+        <v>2742</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
-        <v>212.4835529534292</v>
+        <v>48.5131655603502</v>
       </c>
       <c r="E320" t="n">
         <v>14.1</v>
@@ -6347,14 +6329,14 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1658</v>
+        <v>2467</v>
       </c>
       <c r="B321" t="n">
-        <v>1544</v>
+        <v>2386</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="n">
-        <v>68.35017707740101</v>
+        <v>146.1872177030146</v>
       </c>
       <c r="E321" t="n">
         <v>14.1</v>
@@ -6362,14 +6344,14 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1658</v>
+        <v>2742</v>
       </c>
       <c r="B322" t="n">
-        <v>2180</v>
+        <v>2386</v>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
-        <v>217.5247397333711</v>
+        <v>191.5943999771088</v>
       </c>
       <c r="E322" t="n">
         <v>14.1</v>
@@ -6377,14 +6359,14 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1658</v>
+        <v>2122</v>
       </c>
       <c r="B323" t="n">
-        <v>2178</v>
+        <v>2208</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
-        <v>201.2739905738464</v>
+        <v>245.7378102146843</v>
       </c>
       <c r="E323" t="n">
         <v>14.1</v>
@@ -6392,14 +6374,14 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1658</v>
+        <v>2122</v>
       </c>
       <c r="B324" t="n">
-        <v>1359</v>
+        <v>2432</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
-        <v>66.70841394353052</v>
+        <v>213.1249162381305</v>
       </c>
       <c r="E324" t="n">
         <v>14.1</v>
@@ -6407,14 +6389,14 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1658</v>
+        <v>2208</v>
       </c>
       <c r="B325" t="n">
-        <v>2776</v>
+        <v>2432</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="n">
-        <v>27.44779484717159</v>
+        <v>120.3270122606575</v>
       </c>
       <c r="E325" t="n">
         <v>14.1</v>
@@ -6422,14 +6404,14 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2776</v>
+        <v>2448</v>
       </c>
       <c r="B326" t="n">
-        <v>2177</v>
+        <v>2449</v>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="n">
-        <v>219.6820031512682</v>
+        <v>238.320596453243</v>
       </c>
       <c r="E326" t="n">
         <v>14.1</v>
@@ -6437,44 +6419,38 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2776</v>
+        <v>2466</v>
       </c>
       <c r="B327" t="n">
-        <v>2173</v>
+        <v>2773</v>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="n">
-        <v>224.9345818481979</v>
+        <v>64.02168440192698</v>
       </c>
       <c r="E327" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B328" t="n">
-        <v>1544</v>
-      </c>
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr"/>
-      <c r="D328" t="n">
-        <v>74.03345488450371</v>
-      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2776</v>
+        <v>2636</v>
       </c>
       <c r="B329" t="n">
-        <v>2180</v>
+        <v>2722</v>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
-        <v>229.2423722781326</v>
+        <v>46.9393143572869</v>
       </c>
       <c r="E329" t="n">
         <v>14.1</v>
@@ -6482,14 +6458,14 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2776</v>
+        <v>2372</v>
       </c>
       <c r="B330" t="n">
-        <v>2178</v>
+        <v>2764</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
-        <v>215.2457511525788</v>
+        <v>108.5449905931695</v>
       </c>
       <c r="E330" t="n">
         <v>14.1</v>
@@ -6497,14 +6473,14 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2776</v>
+        <v>2372</v>
       </c>
       <c r="B331" t="n">
-        <v>1359</v>
+        <v>2765</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
-        <v>75.4641487156613</v>
+        <v>87.31009704567178</v>
       </c>
       <c r="E331" t="n">
         <v>14.1</v>
@@ -6512,44 +6488,38 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2776</v>
+        <v>2764</v>
       </c>
       <c r="B332" t="n">
-        <v>1658</v>
+        <v>2765</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
-        <v>27.44779484717159</v>
+        <v>89.39641439101852</v>
       </c>
       <c r="E332" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
-        <v>2481</v>
-      </c>
-      <c r="B333" t="n">
-        <v>2370</v>
-      </c>
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
-      <c r="D333" t="n">
-        <v>315.6168217530986</v>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2370</v>
+        <v>2480</v>
       </c>
       <c r="B334" t="n">
-        <v>2481</v>
+        <v>2662</v>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="n">
-        <v>315.6168217530986</v>
+        <v>162.1321258987431</v>
       </c>
       <c r="E334" t="n">
         <v>14.1</v>
@@ -6557,14 +6527,14 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2370</v>
+        <v>2474</v>
       </c>
       <c r="B335" t="n">
-        <v>2582</v>
+        <v>2665</v>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
-        <v>310.6531154248717</v>
+        <v>95.29170263438395</v>
       </c>
       <c r="E335" t="n">
         <v>14.1</v>
@@ -6572,14 +6542,14 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2582</v>
+        <v>2371</v>
       </c>
       <c r="B336" t="n">
-        <v>2370</v>
+        <v>2664</v>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
-        <v>310.6531154248717</v>
+        <v>95.73966579342995</v>
       </c>
       <c r="E336" t="n">
         <v>14.1</v>
@@ -6587,44 +6557,38 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2421</v>
+        <v>2209</v>
       </c>
       <c r="B337" t="n">
-        <v>2635</v>
+        <v>1840</v>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
-        <v>116.7480907169365</v>
+        <v>132.855253115292</v>
       </c>
       <c r="E337" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
-        <v>2635</v>
-      </c>
-      <c r="B338" t="n">
-        <v>2421</v>
-      </c>
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
-      <c r="D338" t="n">
-        <v>116.7480907169365</v>
-      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="E338" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2462</v>
+        <v>2454</v>
       </c>
       <c r="B339" t="n">
-        <v>2633</v>
+        <v>2435</v>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="n">
-        <v>53.55702075638382</v>
+        <v>401.4978496283746</v>
       </c>
       <c r="E339" t="n">
         <v>14.1</v>
@@ -6632,59 +6596,47 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2633</v>
+        <v>2642</v>
       </c>
       <c r="B340" t="n">
-        <v>2462</v>
+        <v>2557</v>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="n">
-        <v>53.55702075638382</v>
+        <v>155.3511301016545</v>
       </c>
       <c r="E340" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
-        <v>2463</v>
-      </c>
-      <c r="B341" t="n">
-        <v>2632</v>
-      </c>
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
-      <c r="D341" t="n">
-        <v>76.34946114848849</v>
-      </c>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2463</v>
-      </c>
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
-      <c r="D342" t="n">
-        <v>76.34946114848849</v>
-      </c>
+      <c r="D342" t="inlineStr"/>
       <c r="E342" t="n">
         <v>14.1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2534</v>
+        <v>2624</v>
       </c>
       <c r="B343" t="n">
-        <v>2532</v>
+        <v>2585</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
-        <v>188.8573485045831</v>
+        <v>44.45204494005026</v>
       </c>
       <c r="E343" t="n">
         <v>14.1</v>
@@ -6692,14 +6644,14 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2534</v>
+        <v>2583</v>
       </c>
       <c r="B344" t="n">
-        <v>2521</v>
+        <v>2584</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
-        <v>194.2688903974421</v>
+        <v>51.05864226690371</v>
       </c>
       <c r="E344" t="n">
         <v>14.1</v>
@@ -6707,14 +6659,14 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2532</v>
+        <v>2667</v>
       </c>
       <c r="B345" t="n">
-        <v>2534</v>
+        <v>2666</v>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="n">
-        <v>188.8573485045831</v>
+        <v>85.39990869793307</v>
       </c>
       <c r="E345" t="n">
         <v>14.1</v>
@@ -6722,14 +6674,14 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2532</v>
+        <v>2425</v>
       </c>
       <c r="B346" t="n">
-        <v>2521</v>
+        <v>2424</v>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="n">
-        <v>268.0915865011721</v>
+        <v>74.69962247810894</v>
       </c>
       <c r="E346" t="n">
         <v>14.1</v>
@@ -6737,14 +6689,14 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2521</v>
+        <v>2541</v>
       </c>
       <c r="B347" t="n">
-        <v>2534</v>
+        <v>2373</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="n">
-        <v>194.2688903974421</v>
+        <v>54.89537706197569</v>
       </c>
       <c r="E347" t="n">
         <v>14.1</v>
@@ -6752,14 +6704,14 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2521</v>
+        <v>2769</v>
       </c>
       <c r="B348" t="n">
-        <v>2532</v>
+        <v>2407</v>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="n">
-        <v>268.0915865011721</v>
+        <v>75.70035926757336</v>
       </c>
       <c r="E348" t="n">
         <v>14.1</v>
@@ -6767,14 +6719,14 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2739</v>
+        <v>2429</v>
       </c>
       <c r="B349" t="n">
-        <v>2564</v>
+        <v>2678</v>
       </c>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="n">
-        <v>228.0000418872339</v>
+        <v>118.6496305046226</v>
       </c>
       <c r="E349" t="n">
         <v>14.1</v>
@@ -6782,14 +6734,14 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2739</v>
+        <v>2597</v>
       </c>
       <c r="B350" t="n">
-        <v>2568</v>
+        <v>2465</v>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="n">
-        <v>271.9571317819541</v>
+        <v>90.19658492586282</v>
       </c>
       <c r="E350" t="n">
         <v>14.1</v>
@@ -6797,14 +6749,14 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2564</v>
+        <v>2696</v>
       </c>
       <c r="B351" t="n">
-        <v>2739</v>
+        <v>2402</v>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="n">
-        <v>228.0000418872339</v>
+        <v>167.2388212919085</v>
       </c>
       <c r="E351" t="n">
         <v>14.1</v>
@@ -6812,916 +6764,16 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2564</v>
+        <v>2507</v>
       </c>
       <c r="B352" t="n">
-        <v>2568</v>
+        <v>2757</v>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="n">
-        <v>344.7803100550345</v>
+        <v>133.4477515834457</v>
       </c>
       <c r="E352" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>2568</v>
-      </c>
-      <c r="B353" t="n">
-        <v>2739</v>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="n">
-        <v>271.9571317819541</v>
-      </c>
-      <c r="E353" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>2568</v>
-      </c>
-      <c r="B354" t="n">
-        <v>2564</v>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="n">
-        <v>344.7803100550345</v>
-      </c>
-      <c r="E354" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>2382</v>
-      </c>
-      <c r="B355" t="n">
-        <v>2674</v>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="n">
-        <v>36.93102665462838</v>
-      </c>
-      <c r="E355" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B356" t="n">
-        <v>2382</v>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="n">
-        <v>36.93102665462838</v>
-      </c>
-      <c r="E356" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>2467</v>
-      </c>
-      <c r="B357" t="n">
-        <v>2742</v>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="n">
-        <v>48.5131655603502</v>
-      </c>
-      <c r="E357" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>2467</v>
-      </c>
-      <c r="B358" t="n">
-        <v>2386</v>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="n">
-        <v>146.1872177030146</v>
-      </c>
-      <c r="E358" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>2742</v>
-      </c>
-      <c r="B359" t="n">
-        <v>2467</v>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="n">
-        <v>48.5131655603502</v>
-      </c>
-      <c r="E359" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>2742</v>
-      </c>
-      <c r="B360" t="n">
-        <v>2386</v>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="n">
-        <v>191.5943999771088</v>
-      </c>
-      <c r="E360" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>2386</v>
-      </c>
-      <c r="B361" t="n">
-        <v>2467</v>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="n">
-        <v>146.1872177030146</v>
-      </c>
-      <c r="E361" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>2386</v>
-      </c>
-      <c r="B362" t="n">
-        <v>2742</v>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="n">
-        <v>191.5943999771088</v>
-      </c>
-      <c r="E362" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>2122</v>
-      </c>
-      <c r="B363" t="n">
-        <v>2208</v>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="n">
-        <v>245.7378102146843</v>
-      </c>
-      <c r="E363" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>2122</v>
-      </c>
-      <c r="B364" t="n">
-        <v>2432</v>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="n">
-        <v>213.1249162381305</v>
-      </c>
-      <c r="E364" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>2208</v>
-      </c>
-      <c r="B365" t="n">
-        <v>2122</v>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="n">
-        <v>245.7378102146843</v>
-      </c>
-      <c r="E365" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>2208</v>
-      </c>
-      <c r="B366" t="n">
-        <v>2432</v>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="n">
-        <v>120.3270122606575</v>
-      </c>
-      <c r="E366" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>2432</v>
-      </c>
-      <c r="B367" t="n">
-        <v>2122</v>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="n">
-        <v>213.1249162381305</v>
-      </c>
-      <c r="E367" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>2432</v>
-      </c>
-      <c r="B368" t="n">
-        <v>2208</v>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="n">
-        <v>120.3270122606575</v>
-      </c>
-      <c r="E368" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>2448</v>
-      </c>
-      <c r="B369" t="n">
-        <v>2449</v>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="n">
-        <v>238.320596453243</v>
-      </c>
-      <c r="E369" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>2449</v>
-      </c>
-      <c r="B370" t="n">
-        <v>2448</v>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="n">
-        <v>238.320596453243</v>
-      </c>
-      <c r="E370" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>2466</v>
-      </c>
-      <c r="B371" t="n">
-        <v>2773</v>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="n">
-        <v>64.02168440192698</v>
-      </c>
-      <c r="E371" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>2773</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2466</v>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="n">
-        <v>64.02168440192698</v>
-      </c>
-      <c r="E372" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>2636</v>
-      </c>
-      <c r="B373" t="n">
-        <v>2722</v>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="n">
-        <v>46.9393143572869</v>
-      </c>
-      <c r="E373" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>2722</v>
-      </c>
-      <c r="B374" t="n">
-        <v>2636</v>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="n">
-        <v>46.9393143572869</v>
-      </c>
-      <c r="E374" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>2372</v>
-      </c>
-      <c r="B375" t="n">
-        <v>2764</v>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="n">
-        <v>108.5449905931695</v>
-      </c>
-      <c r="E375" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>2372</v>
-      </c>
-      <c r="B376" t="n">
-        <v>2765</v>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="n">
-        <v>87.31009704567178</v>
-      </c>
-      <c r="E376" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>2764</v>
-      </c>
-      <c r="B377" t="n">
-        <v>2372</v>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="n">
-        <v>108.5449905931695</v>
-      </c>
-      <c r="E377" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>2764</v>
-      </c>
-      <c r="B378" t="n">
-        <v>2765</v>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="n">
-        <v>89.39641439101852</v>
-      </c>
-      <c r="E378" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>2765</v>
-      </c>
-      <c r="B379" t="n">
-        <v>2372</v>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="n">
-        <v>87.31009704567178</v>
-      </c>
-      <c r="E379" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>2765</v>
-      </c>
-      <c r="B380" t="n">
-        <v>2764</v>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="n">
-        <v>89.39641439101852</v>
-      </c>
-      <c r="E380" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>2480</v>
-      </c>
-      <c r="B381" t="n">
-        <v>2662</v>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="n">
-        <v>162.1321258987431</v>
-      </c>
-      <c r="E381" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B382" t="n">
-        <v>2480</v>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="n">
-        <v>162.1321258987431</v>
-      </c>
-      <c r="E382" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>2474</v>
-      </c>
-      <c r="B383" t="n">
-        <v>2665</v>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="n">
-        <v>95.29170263438395</v>
-      </c>
-      <c r="E383" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>2665</v>
-      </c>
-      <c r="B384" t="n">
-        <v>2474</v>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="n">
-        <v>95.29170263438395</v>
-      </c>
-      <c r="E384" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>2371</v>
-      </c>
-      <c r="B385" t="n">
-        <v>2664</v>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="n">
-        <v>95.73966579342995</v>
-      </c>
-      <c r="E385" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>2664</v>
-      </c>
-      <c r="B386" t="n">
-        <v>2371</v>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="n">
-        <v>95.73966579342995</v>
-      </c>
-      <c r="E386" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>2209</v>
-      </c>
-      <c r="B387" t="n">
-        <v>1840</v>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="n">
-        <v>132.855253115292</v>
-      </c>
-      <c r="E387" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>1840</v>
-      </c>
-      <c r="B388" t="n">
-        <v>2209</v>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="n">
-        <v>132.855253115292</v>
-      </c>
-      <c r="E388" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>2454</v>
-      </c>
-      <c r="B389" t="n">
-        <v>2435</v>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="n">
-        <v>401.4978496283746</v>
-      </c>
-      <c r="E389" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>2435</v>
-      </c>
-      <c r="B390" t="n">
-        <v>2454</v>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="n">
-        <v>401.4978496283746</v>
-      </c>
-      <c r="E390" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>2642</v>
-      </c>
-      <c r="B391" t="n">
-        <v>2557</v>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="n">
-        <v>155.3511301016545</v>
-      </c>
-      <c r="E391" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>2557</v>
-      </c>
-      <c r="B392" t="n">
-        <v>2642</v>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="n">
-        <v>155.3511301016545</v>
-      </c>
-      <c r="E392" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>2624</v>
-      </c>
-      <c r="B393" t="n">
-        <v>2585</v>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="n">
-        <v>44.45204494005026</v>
-      </c>
-      <c r="E393" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>2585</v>
-      </c>
-      <c r="B394" t="n">
-        <v>2624</v>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="n">
-        <v>44.45204494005026</v>
-      </c>
-      <c r="E394" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B395" t="n">
-        <v>2584</v>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="n">
-        <v>51.05864226690371</v>
-      </c>
-      <c r="E395" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>2584</v>
-      </c>
-      <c r="B396" t="n">
-        <v>2583</v>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="n">
-        <v>51.05864226690371</v>
-      </c>
-      <c r="E396" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>2667</v>
-      </c>
-      <c r="B397" t="n">
-        <v>2666</v>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="n">
-        <v>85.39990869793307</v>
-      </c>
-      <c r="E397" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>2666</v>
-      </c>
-      <c r="B398" t="n">
-        <v>2667</v>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="n">
-        <v>85.39990869793307</v>
-      </c>
-      <c r="E398" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>2425</v>
-      </c>
-      <c r="B399" t="n">
-        <v>2424</v>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="n">
-        <v>74.69962247810894</v>
-      </c>
-      <c r="E399" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>2424</v>
-      </c>
-      <c r="B400" t="n">
-        <v>2425</v>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="n">
-        <v>74.69962247810894</v>
-      </c>
-      <c r="E400" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>2541</v>
-      </c>
-      <c r="B401" t="n">
-        <v>2373</v>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="n">
-        <v>54.89537706197569</v>
-      </c>
-      <c r="E401" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>2373</v>
-      </c>
-      <c r="B402" t="n">
-        <v>2541</v>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="n">
-        <v>54.89537706197569</v>
-      </c>
-      <c r="E402" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>2769</v>
-      </c>
-      <c r="B403" t="n">
-        <v>2407</v>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="n">
-        <v>75.70035926757336</v>
-      </c>
-      <c r="E403" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>2407</v>
-      </c>
-      <c r="B404" t="n">
-        <v>2769</v>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="n">
-        <v>75.70035926757336</v>
-      </c>
-      <c r="E404" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>2429</v>
-      </c>
-      <c r="B405" t="n">
-        <v>2678</v>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="n">
-        <v>118.6496305046226</v>
-      </c>
-      <c r="E405" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>2678</v>
-      </c>
-      <c r="B406" t="n">
-        <v>2429</v>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="n">
-        <v>118.6496305046226</v>
-      </c>
-      <c r="E406" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>2597</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2465</v>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="n">
-        <v>90.19658492586282</v>
-      </c>
-      <c r="E407" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>2465</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2597</v>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="n">
-        <v>90.19658492586282</v>
-      </c>
-      <c r="E408" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B409" t="n">
-        <v>2402</v>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="n">
-        <v>167.2388212919085</v>
-      </c>
-      <c r="E409" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>2402</v>
-      </c>
-      <c r="B410" t="n">
-        <v>2696</v>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="n">
-        <v>167.2388212919085</v>
-      </c>
-      <c r="E410" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>2507</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2757</v>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="n">
-        <v>133.4477515834457</v>
-      </c>
-      <c r="E411" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>2757</v>
-      </c>
-      <c r="B412" t="n">
-        <v>2507</v>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="n">
-        <v>133.4477515834457</v>
-      </c>
-      <c r="E412" t="n">
         <v>14.1</v>
       </c>
     </row>
